--- a/docs/if_worksheet.xlsx
+++ b/docs/if_worksheet.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel2\Dropbox\siglabs-eng\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel2\projects\graviton\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$Q$5</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$P$5</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$Q$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet2!$Q$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$P$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet2!$P$5</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$L$25</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$K$24</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
@@ -65,7 +65,7 @@
     <author>joel2</author>
   </authors>
   <commentList>
-    <comment ref="V5" authorId="0" shapeId="0">
+    <comment ref="U5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>LO</t>
   </si>
@@ -166,9 +166,6 @@
     <t>guard</t>
   </si>
   <si>
-    <t>sample clk</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
@@ -187,7 +184,22 @@
     <t>folded fc</t>
   </si>
   <si>
-    <t>score</t>
+    <t>inverted</t>
+  </si>
+  <si>
+    <t>nyquist</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>RF order</t>
+  </si>
+  <si>
+    <t>LO order</t>
   </si>
 </sst>
 </file>
@@ -197,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +245,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -336,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -363,11 +390,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,11 +1108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237942432"/>
-        <c:axId val="237942992"/>
+        <c:axId val="100325072"/>
+        <c:axId val="100325632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237942432"/>
+        <c:axId val="100325072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1138,12 +1170,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237942992"/>
+        <c:crossAx val="100325632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237942992"/>
+        <c:axId val="100325632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237942432"/>
+        <c:crossAx val="100325072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6379,11 +6411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238218144"/>
-        <c:axId val="238218704"/>
+        <c:axId val="514232176"/>
+        <c:axId val="514232736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238218144"/>
+        <c:axId val="514232176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
@@ -6442,12 +6474,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238218704"/>
+        <c:crossAx val="514232736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238218704"/>
+        <c:axId val="514232736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,7 +6536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238218144"/>
+        <c:crossAx val="514232176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6687,606 +6719,318 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5:$G$102</c:f>
+              <c:f>Sheet2!$H$5:$H$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1861.5517327351977</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2808.1034654703953</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3754.6551982055935</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4701.2069309407907</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5647.7586636759888</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6594.310396411187</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7540.8621291463842</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.551732735197788</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>978.10346547039558</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1924.6551982055935</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2871.2069309407912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3817.7586636759888</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4764.310396411187</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5710.8621291463842</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2776.5517327351977</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3723.1034654703953</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4669.6551982055935</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5616.2069309407907</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6562.7586636759888</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7509.310396411187</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8455.8621291463842</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>883.44826726480221</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.103465470395577</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1009.6551982055935</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1956.2069309407912</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2902.7586636759888</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3849.310396411187</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4795.8621291463842</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3691.5517327351977</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4638.1034654703953</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5584.6551982055935</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6531.2069309407907</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7477.7586636759888</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8424.310396411187</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9370.8621291463842</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1798.4482672648023</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>851.89653452960442</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>94.655198205593479</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1041.2069309407912</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1987.7586636759888</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2934.310396411187</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3880.8621291463842</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4606.5517327351981</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5553.1034654703953</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6499.6551982055935</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7446.2069309407907</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8392.7586636759879</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9339.310396411187</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10285.862129146384</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2713.4482672648023</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1766.8965345296044</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>820.34480179440652</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>126.20693094079115</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1072.7586636759888</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2019.310396411187</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2965.8621291463842</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5521.5517327351981</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6468.1034654703953</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7414.6551982055935</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8361.2069309407907</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9307.7586636759879</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10254.310396411187</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11200.862129146384</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3628.4482672648023</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2681.8965345296047</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1735.3448017944065</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>788.79306905920885</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>157.75866367598883</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1104.310396411187</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2050.8621291463842</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6436.5517327351981</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7383.1034654703953</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8329.6551982055935</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9276.2069309407907</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10222.758663675988</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11169.310396411187</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12115.862129146384</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4543.4482672648019</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3596.8965345296047</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2650.3448017944065</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1703.7930690592088</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>757.24133632401117</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>189.31039641118696</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1135.8621291463842</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7351.5517327351981</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8298.1034654703963</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9244.6551982055935</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10191.206930940791</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>11137.758663675988</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12084.310396411187</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13030.862129146384</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5458.4482672648019</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4511.8965345296047</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3565.3448017944065</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2618.7930690592088</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1672.2413363240112</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>725.68960358881304</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>220.86212914638418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$E$102</c:f>
+              <c:f>Sheet2!$F$5:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0053333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0073529411764706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0188679245283019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0434782608695652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0392156862745099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0074626865671641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.0104166666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.0157232704402517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.0271739130434783</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0657894736842106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>1.1041666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>1.078125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0925925925925926</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>1.3125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0157232704402517</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0246913580246915</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>1.0438596491228069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>1.10752688172043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5</c:v>
+                  <c:v>1.2083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5</c:v>
+                  <c:v>1.1851851851851851</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5</c:v>
+                  <c:v>2.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.1190476190476191</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0476190476190477</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0192307692307692</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0277777777777777</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0438596491228069</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.2173913043478262</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0675675675675675</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.25</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.25</c:v>
+                  <c:v>1.2173913043478262</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.25</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25</c:v>
+                  <c:v>1.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25</c:v>
+                  <c:v>1.1136363636363635</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>1.0689655172413792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7301,14 +7045,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238221504"/>
-        <c:axId val="238222064"/>
+        <c:axId val="359717648"/>
+        <c:axId val="514022656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238221504"/>
+        <c:axId val="359717648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2800"/>
+          <c:max val="150"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7327,9 +7071,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7364,17 +7108,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238222064"/>
+        <c:crossAx val="514022656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
-        <c:minorUnit val="25"/>
+        <c:minorUnit val="38.125000000000007"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238222064"/>
+        <c:axId val="514022656"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7429,7 +7174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238221504"/>
+        <c:crossAx val="359717648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7493,31 +7238,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Intermodulation Products</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7551,641 +7271,47 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$5:$I$102</c:f>
+              <c:f>Sheet2!$L$18:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.5517078031240885</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5517078031239748</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5517078031243159</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5517078031237475</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5517078031240885</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5517078031244296</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5517078031238611</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-25.999999999999886</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-25.999999999999886</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-25.999999999999773</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-25.999999999999659</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-25.9999750679263</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-25.999975067926187</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-25.999975067926528</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-25.999975067925959</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-25.9999750679263</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-25.999975067926641</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-25.999975067926073</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-25.999975067926414</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5517327351977883</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.551732735197902</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.5517327351977883</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.5517327351976746</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.5517327351980157</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.5517327351974473</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37.103415606248291</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37.103415606248177</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37.103415606248518</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37.10341560624795</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37.103415606248291</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>37.103415606248632</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37.103415606248063</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37.103415606248518</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37.103415606248404</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.5517078031240885</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5517078031242022</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.5517078031243159</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.5517078031239748</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.5517078031245433</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.5516828710509571</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.5516828710503887</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.5516828710507298</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.5516828710501613</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.5516828710495929</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.5516828710508435</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.551682871050275</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.5516828710507298</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.5516828710506161</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.5516828710505024</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-25.999975067926414</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-25.999975067926528</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-25.999975067926187</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-25.999975067926755</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-25.999950135853169</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-25.9999501358526</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-25.999950135852941</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-25.999950135852373</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-25.999950135851805</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-25.999950135853055</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-25.999950135852487</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-25.999950135852941</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-25.999950135853055</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-25.999950135852714</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-25.999950135852828</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.5517576672712607</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.5517576672716018</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.5517576672710334</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>37.103390674175159</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>37.103390674174591</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>37.103390674174932</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>37.103390674174364</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>37.103390674173795</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37.103390674175046</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>37.103390674174477</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>37.103390674174477</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>37.103390674175046</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>37.103390674174705</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>37.103390674174818</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>37.103390674174932</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.5516828710503887</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.5516828710509571</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.551657938977371</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.5516579389777121</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.5516579389771437</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.5516579389765752</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.5516579389760068</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.5516579389772573</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.5516579389766889</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.5516579389766889</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.5516579389772573</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.5516579389769163</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.55165793897703</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.5516579389771437</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.5516579389768026</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-25.999950135853169</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$5:$F$102</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="98"/>
-                <c:pt idx="0">
-                  <c:v>-114.10344884901318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-187.20689769802635</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-260.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-333.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-406.51724424506591</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-479.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-552.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-65.206897698026367</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-138.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-211.41379539605273</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-284.51724424506591</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-357.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-430.72414194309232</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-185.10344884901318</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-258.20689769802635</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-331.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-404.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-477.51724424506591</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-550.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-623.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-58.896551150986816</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-87.310346547039558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-160.41379539605273</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-233.51724424506591</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-306.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-379.72414194309232</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-256.10344884901315</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-329.20689769802635</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-402.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-475.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-548.51724424506597</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-621.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-694.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-129.89655115098682</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-76.793102301973633</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-109.41379539605273</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-182.51724424506591</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-255.62069309407914</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-328.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-327.1034488490132</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-400.20689769802635</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-473.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-546.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-619.51724424506585</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-692.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-765.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-200.89655115098682</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-147.79310230197365</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-94.689653452960442</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-131.51724424506591</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-204.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-277.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-398.1034488490132</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-471.20689769802635</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-544.31034654703967</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-617.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-690.51724424506585</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-763.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-836.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-271.89655115098685</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-218.79310230197365</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-165.68965345296044</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-112.58620460394727</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-80.517244245065925</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-153.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-226.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-469.1034488490132</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-542.2068976980263</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-615.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-688.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-761.51724424506585</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-834.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-907.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-342.8965511509868</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-289.79310230197365</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-236.68965345296044</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-183.58620460394727</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-130.48275575493409</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-102.62069309407913</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-175.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-540.10344884901315</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-613.20689769802641</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-686.31034654703956</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-759.41379539605271</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-832.51724424506585</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-905.62069309407912</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-978.72414194309226</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-413.8965511509868</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-360.79310230197365</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-307.68965345296044</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-254.58620460394727</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-201.48275575493409</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-148.37930690592088</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-124.72414194309228</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8195,43 +7321,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350410128"/>
-        <c:axId val="350410688"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="350410128"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="260333792"/>
+        <c:axId val="421684912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="260333792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="-50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -8258,16 +7369,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350410688"/>
+        <c:crossAx val="421684912"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="350410688"/>
+        <c:axId val="421684912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8285,20 +7397,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8322,9 +7428,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350410128"/>
+        <c:crossAx val="260333792"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10080,7 +9186,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10107,8 +9213,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10209,7 +9315,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10241,10 +9347,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10284,23 +9390,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10405,8 +9510,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10538,20 +9643,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10565,17 +9669,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10664,16 +9757,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85359</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160092</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45792</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>179142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10694,23 +9787,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11033,22 +10124,22 @@
       <c r="D4">
         <v>2950</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="R4" s="12" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="R4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="4:23" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
@@ -16330,3330 +15421,1963 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V102"/>
+  <dimension ref="B3:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="L3" s="7"/>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="2:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="10">
+        <v>937.5</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5" s="13">
+        <f>$K$5*B5+$P$5*C5</f>
+        <v>-9325</v>
+      </c>
+      <c r="E5">
+        <f>ROUNDUP(D5/$M$7,0)</f>
+        <v>-75</v>
+      </c>
+      <c r="F5">
+        <f>10/(ABS(B5)*ABS(C5)*ABS(E5))+1</f>
+        <v>1.0053333333333334</v>
+      </c>
+      <c r="G5">
+        <f>MOD(ROUNDDOWN(D5/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <f>MOD(IF(G5,-1,1)*ABS(D5),$M$7)</f>
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <f>ABS($N$5-H5)-26</f>
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>915</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <f>N5-13</f>
+        <v>22</v>
+      </c>
+      <c r="N5" s="5">
+        <f>P5-K5</f>
+        <v>35</v>
+      </c>
+      <c r="O5" s="8">
+        <f>N5+13</f>
+        <v>48</v>
+      </c>
+      <c r="P5" s="11">
+        <v>950</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <f>IF(Q5=1,P5+N5,P5-N5)</f>
+        <v>985</v>
+      </c>
+      <c r="U5">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" ref="D6:D69" si="0">$K$5*B6+$P$5*C6</f>
+        <v>-8410</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E69" si="1">ROUNDUP(D6/$M$7,0)</f>
+        <v>-68</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F69" si="2">10/(ABS(B6)*ABS(C6)*ABS(E6))+1</f>
+        <v>1.0073529411764706</v>
+      </c>
+      <c r="G6">
+        <f>MOD(ROUNDDOWN(D6/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" ref="H6:H54" si="3">MOD(IF(G6,-1,1)*ABS(D6),$M$7)</f>
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <f>ABS($N$5-H6)-26</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-3</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>-7495</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="G7">
+        <f>MOD(ROUNDDOWN(D7/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f>ABS($N$5-H7)-26</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="M7" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>-6580</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.0188679245283019</v>
+      </c>
+      <c r="G8">
+        <f>MOD(ROUNDDOWN(D8/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <f>ABS($N$5-H8)-26</f>
+        <v>19</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>-5665</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-46</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="G9">
+        <f>MOD(ROUNDDOWN(D9/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <f>ABS($N$5-H9)-26</f>
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>-3835</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-31</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.064516129032258</v>
+      </c>
+      <c r="G10">
+        <f>MOD(ROUNDDOWN(D10/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <f>ABS($N$5-H10)-26</f>
+        <v>24</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>-2920</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="G11">
+        <f>MOD(ROUNDDOWN(D11/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I11" s="12">
+        <f>ABS($N$5-H11)-26</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>-2005</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.0392156862745099</v>
+      </c>
+      <c r="G12">
+        <f>MOD(ROUNDDOWN(D12/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f>ABS($N$5-H12)-26</f>
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>-1090</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="G13">
+        <f>MOD(ROUNDDOWN(D13/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <f>ABS($N$5-H13)-26</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>-5</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <f>MOD(ROUNDDOWN(D14/$M$7,0),2)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="H14" s="19">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <f>ABS($N$5-H14)-26</f>
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>-5</v>
+      </c>
+      <c r="C15">
+        <v>-4</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>-8375</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-67</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.0074626865671641</v>
+      </c>
+      <c r="G15">
+        <f>MOD(ROUNDDOWN(D15/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>ABS($N$5-H15)-26</f>
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <f>F26-F12</f>
+        <v>-2.3492415834258207E-2</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f>L15-M15</f>
+        <v>-26.023492415834259</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-4</v>
+      </c>
+      <c r="C16">
+        <v>-4</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>-7460</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.0104166666666667</v>
+      </c>
+      <c r="G16">
+        <f>MOD(ROUNDDOWN(D16/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <f>ABS($N$5-H16)-26</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>-3</v>
+      </c>
+      <c r="C17">
+        <v>-4</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>-6545</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.0157232704402517</v>
+      </c>
+      <c r="G17">
+        <f>MOD(ROUNDDOWN(D17/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I17">
+        <f>ABS($N$5-H17)-26</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-2</v>
+      </c>
+      <c r="C18">
+        <v>-4</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>-5630</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-46</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.0271739130434783</v>
+      </c>
+      <c r="G18">
+        <f>MOD(ROUNDDOWN(D18/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="I18">
+        <f>ABS($N$5-H18)-26</f>
+        <v>59</v>
+      </c>
+      <c r="L18">
+        <f>I29</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-4</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>-4715</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-38</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.0657894736842106</v>
+      </c>
+      <c r="G19">
+        <f>MOD(ROUNDDOWN(D19/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <f>ABS($N$5-H19)-26</f>
+        <v>-26</v>
+      </c>
+      <c r="L19">
+        <f>I30</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>-4</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>-2885</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.1041666666666667</v>
+      </c>
+      <c r="G20">
+        <f>MOD(ROUNDDOWN(D20/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <f>ABS($N$5-H20)-26</f>
+        <v>54</v>
+      </c>
+      <c r="L20">
+        <f>I41</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="C21">
+        <v>-4</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>-1970</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.078125</v>
+      </c>
+      <c r="G21">
+        <f>MOD(ROUNDDOWN(D21/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <f>ABS($N$5-H21)-26</f>
+        <v>-21</v>
+      </c>
+      <c r="L21">
+        <f>I47</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>-1055</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.0925925925925926</v>
+      </c>
+      <c r="G22">
+        <f>MOD(ROUNDDOWN(D22/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <f>ABS($N$5-H22)-26</f>
+        <v>-6</v>
+      </c>
+      <c r="L22">
+        <f>I52</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>-4</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>-140</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.3125</v>
+      </c>
+      <c r="G23">
+        <f>MOD(ROUNDDOWN(D23/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <f>ABS($N$5-H23)-26</f>
+        <v>49</v>
+      </c>
+      <c r="L23">
+        <f>(N5-30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>-4</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="6" t="s">
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="G24">
+        <f>MOD(ROUNDDOWN(D24/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <f>ABS($N$5-H24)-26</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>-5</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>-7425</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="G25">
+        <f>MOD(ROUNDDOWN(D25/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <f>ABS($N$5-H25)-26</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>-4</v>
+      </c>
+      <c r="C26">
+        <v>-3</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>-6510</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.0157232704402517</v>
+      </c>
+      <c r="G26">
+        <f>MOD(ROUNDDOWN(D26/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f>ABS($N$5-H26)-26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>-3</v>
+      </c>
+      <c r="C27">
+        <v>-3</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>-5595</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1.0246913580246915</v>
+      </c>
+      <c r="G27">
+        <f>MOD(ROUNDDOWN(D27/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="I27">
+        <f>ABS($N$5-H27)-26</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>-2</v>
+      </c>
+      <c r="C28">
+        <v>-3</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>-4680</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>-38</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1.0438596491228069</v>
+      </c>
+      <c r="G28">
+        <f>MOD(ROUNDDOWN(D28/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <f>ABS($N$5-H28)-26</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="15">
+        <v>-3</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>-3765</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="1"/>
+        <v>-31</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1.10752688172043</v>
+      </c>
+      <c r="G29" s="15">
+        <f>MOD(ROUNDDOWN(D29/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="I29" s="15">
+        <f>ABS($N$5-H29)-26</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>-3</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>-1935</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="G30" s="15">
+        <f>MOD(ROUNDDOWN(D30/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="I30" s="15">
+        <f>ABS($N$5-H30)-26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>-3</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>-1020</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="G31">
+        <f>MOD(ROUNDDOWN(D31/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <f>ABS($N$5-H31)-26</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>-3</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>-105</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="G32">
+        <f>MOD(ROUNDDOWN(D32/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="I32">
+        <f>ABS($N$5-H32)-26</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>-3</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="G33">
+        <f>MOD(ROUNDDOWN(D33/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="I33">
+        <f>ABS($N$5-H33)-26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>-3</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>1725</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="G34">
+        <f>MOD(ROUNDDOWN(D34/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <f>ABS($N$5-H34)-26</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>-5</v>
+      </c>
+      <c r="C35">
+        <v>-2</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>-6475</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>-52</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1.0192307692307692</v>
+      </c>
+      <c r="G35">
+        <f>MOD(ROUNDDOWN(D35/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <f>ABS($N$5-H35)-26</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>-4</v>
+      </c>
+      <c r="C36">
+        <v>-2</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>-5560</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.0277777777777777</v>
+      </c>
+      <c r="G36">
+        <f>MOD(ROUNDDOWN(D36/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <f>ABS($N$5-H36)-26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>-3</v>
+      </c>
+      <c r="C37">
+        <v>-2</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>-4645</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>-38</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.0438596491228069</v>
+      </c>
+      <c r="G37">
+        <f>MOD(ROUNDDOWN(D37/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="I37">
+        <f>ABS($N$5-H37)-26</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>-2</v>
+      </c>
+      <c r="C38">
+        <v>-2</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>-3730</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="G38">
+        <f>MOD(ROUNDDOWN(D38/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <f>ABS($N$5-H38)-26</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>-2</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>-2815</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1.2173913043478262</v>
+      </c>
+      <c r="G39">
+        <f>MOD(ROUNDDOWN(D39/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="I39">
+        <f>ABS($N$5-H39)-26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>-2</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>-985</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1.625</v>
+      </c>
+      <c r="G40">
+        <f>MOD(ROUNDDOWN(D40/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <f>ABS($N$5-H40)-26</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
+        <v>2</v>
+      </c>
+      <c r="C41" s="17">
+        <v>-2</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="G41" s="17">
+        <f>MOD(ROUNDDOWN(D41/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="I41" s="17">
+        <f>ABS($N$5-H41)-26</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>-2</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>1.2380952380952381</v>
+      </c>
+      <c r="G42">
+        <f>MOD(ROUNDDOWN(D42/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="I42">
+        <f>ABS($N$5-H42)-26</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>-2</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="G43">
+        <f>MOD(ROUNDDOWN(D43/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <f>ABS($N$5-H43)-26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>-2</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="0"/>
+        <v>2675</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="G44">
+        <f>MOD(ROUNDDOWN(D44/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <f>ABS($N$5-H44)-26</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>-5</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>-5525</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="G45">
+        <f>MOD(ROUNDDOWN(D45/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I45">
+        <f>ABS($N$5-H45)-26</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>-4</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>-4610</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>-37</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1.0675675675675675</v>
+      </c>
+      <c r="G46">
+        <f>MOD(ROUNDDOWN(D46/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="I46">
+        <f>ABS($N$5-H46)-26</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
+        <v>-3</v>
+      </c>
+      <c r="C47" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>-3695</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G47" s="15">
+        <f>MOD(ROUNDDOWN(D47/$M$7,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="19">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="I47" s="15">
+        <f>ABS($N$5-H47)-26</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>-2</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>-2780</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1.2173913043478262</v>
+      </c>
+      <c r="G48">
+        <f>MOD(ROUNDDOWN(D48/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <f>ABS($N$5-H48)-26</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>-1</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>-1865</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="G49">
+        <f>MOD(ROUNDDOWN(D49/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="I49">
+        <f>ABS($N$5-H49)-26</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="19">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="G50" s="12">
+        <f>MOD(ROUNDDOWN(D50/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="I50" s="12">
+        <f>ABS($N$5-H50)-26</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>1.625</v>
+      </c>
+      <c r="G51">
+        <f>MOD(ROUNDDOWN(D51/$M$7,0),2)</f>
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="H51" s="19">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="I51">
+        <f>ABS($N$5-H51)-26</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="15">
+        <v>3</v>
+      </c>
+      <c r="C52" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D52" s="16">
+        <f t="shared" si="0"/>
+        <v>1795</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="G52" s="15">
+        <f>MOD(ROUNDDOWN(D52/$M$7,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I52" s="15">
+        <f>ABS($N$5-H52)-26</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>1.1136363636363635</v>
+      </c>
+      <c r="G53">
+        <f>MOD(ROUNDDOWN(D53/$M$7,0),2)</f>
         <v>1</v>
       </c>
-      <c r="E5">
-        <f>1/C5</f>
+      <c r="H53" s="19">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I53">
+        <f>ABS($N$5-H53)-26</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
+        <v>3625</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>1.0689655172413792</v>
+      </c>
+      <c r="G54">
+        <f>MOD(ROUNDDOWN(D54/$M$7,0),2)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="14">
-        <f>IF(G5&gt;$N$8,-$N$9*(G5-$N$8)/$N$8,0)-($N$10*(ABS(C5)-1+ABS(D5)-1))</f>
-        <v>-114.10344884901318</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G69" si="0">ABS($D5*$Q$5+$L$5*$C5)</f>
-        <v>1861.5517327351977</v>
-      </c>
-      <c r="H5">
-        <f>MOD(G5,$N$7/2)</f>
-        <v>63.103440538321877</v>
-      </c>
-      <c r="I5">
-        <f>ABS($O$5-H5)-26</f>
-        <v>5.5517078031240885</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J68" si="1">(F5*(100-I5))^2</f>
-        <v>116141053.68039672</v>
-      </c>
-      <c r="L5" s="4">
-        <v>915</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <f>O5-13</f>
-        <v>18.551732735197788</v>
-      </c>
-      <c r="O5" s="5">
-        <f>Q5-L5</f>
-        <v>31.551732735197788</v>
-      </c>
-      <c r="P5" s="8">
-        <f>O5+13</f>
-        <v>44.551732735197788</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>946.55173273519779</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <f>IF(R5=1,Q5+O5,Q5-O5)</f>
-        <v>978.10346547039558</v>
-      </c>
-      <c r="V5">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" ref="F6:F69" si="2">IF(G6&gt;$N$8,-$N$9*(G6-$N$8)/$N$8,0)-($N$10*(ABS(C6)-1+ABS(D6)-1))</f>
-        <v>-187.20689769802635</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>2808.1034654703953</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H69" si="3">MOD(G6,$N$7/2)</f>
-        <v>63.103440538321763</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I69" si="4">ABS($O$5-H6)-26</f>
-        <v>5.5517078031239748</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>312630907.84767169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E70" si="5">1/C7</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="2"/>
-        <v>-260.31034654703956</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>3754.6551982055935</v>
-      </c>
-      <c r="H7">
+      <c r="H54" s="19">
         <f t="shared" si="3"/>
-        <v>63.103440538322104</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>5.5517078031243159</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>604464889.21188164</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="3">
-        <f>Q5/5</f>
-        <v>189.31034654703956</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="2"/>
-        <v>-333.41379539605271</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>4701.2069309407907</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>63.103440538321536</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>5.5517078031237475</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>991642997.77304423</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="2"/>
-        <v>-406.51724424506591</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>5647.7586636759888</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>63.103440538321877</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>5.5517078031240885</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>1474165233.5311294</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="2"/>
-        <v>-479.62069309407912</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>6594.310396411187</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>63.103440538322218</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>5.5517078031244296</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>2052031596.4861457</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="2"/>
-        <v>-552.72414194309226</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>7540.8621291463842</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>63.103440538321649</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>5.5517078031238611</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>2725242086.6381435</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
-        <f t="shared" si="0"/>
-        <v>31.551732735197788</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>31.551732735197788</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="4"/>
-        <v>-26</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="2"/>
-        <v>-65.206897698026367</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>978.10346547039558</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>31.551732735197788</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>-26</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>67503791.619496316</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>-3</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="2"/>
-        <v>-138.31034654703956</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1924.6551982055935</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>31.551732735197902</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>-25.999999999999886</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>303703942.14811105</v>
-      </c>
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>-4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
-        <v>-211.41379539605273</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>2871.2069309407912</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>31.551732735197788</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>-26</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>709590407.82263803</v>
-      </c>
-      <c r="M15">
-        <f>G27-G12</f>
-        <v>31.551732735197788</v>
-      </c>
-      <c r="N15">
-        <v>26</v>
-      </c>
-      <c r="O15">
-        <f>M15-N15</f>
-        <v>5.5517327351977883</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>-5</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="2"/>
-        <v>-284.51724424506591</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3817.7586636759888</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>31.551732735197675</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>-25.999999999999886</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>1285163188.6430736</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>-6</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="2"/>
-        <v>-357.62069309407912</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>4764.310396411187</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>31.551732735198016</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>-25.999999999999773</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>2030422284.6094182</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>-7</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="2"/>
-        <v>-430.72414194309232</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>5710.8621291463842</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>31.551732735197447</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
-        <v>-25.999999999999659</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>2945367695.7216702</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f>39-13</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="2"/>
-        <v>-185.10344884901318</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>2776.5517327351977</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>31.551707803124089</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>-25.9999750679263</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>543963725.58040261</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>39-13</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" si="2"/>
-        <v>-258.20689769802635</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>3723.1034654703953</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>31.551707803123975</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926187</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1058465233.9663081</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>39+13</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="2"/>
-        <v>-331.31034654703956</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>4669.6551982055935</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>31.551707803124316</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926528</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>1742652990.3452578</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f>39+13</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="2"/>
-        <v>-404.41379539605271</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>5616.2069309407907</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>31.551707803123747</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
-        <v>-25.999975067925959</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>2596526994.7172117</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" si="2"/>
-        <v>-477.51724424506591</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>6562.7586636759888</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>31.551707803124089</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
-        <v>-25.9999750679263</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>3620087247.0822344</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="14">
-        <f t="shared" si="2"/>
-        <v>-550.62069309407912</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>7509.310396411187</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>31.55170780312443</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926641</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>4813333747.4403028</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="14">
-        <f t="shared" si="2"/>
-        <v>-623.72414194309226</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>8455.8621291463842</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>31.551707803123861</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926073</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>6176266495.7913303</v>
-      </c>
-      <c r="L25">
-        <f>SUM(J5:J102)</f>
-        <v>176482520768.56955</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="2"/>
-        <v>-58.896551150986816</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>883.44826726480221</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>31.551707803124202</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926414</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>55070706.342160985</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>-2</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="14">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>63.103465470395577</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>63.103465470395577</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>5.5517327351977883</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>3568190.0757294036</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>-3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="14">
-        <f t="shared" si="2"/>
-        <v>-87.310346547039558</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>1009.6551982055935</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>63.10346547039569</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
-        <v>5.551732735197902</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>68001644.212467119</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>-4</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="14">
-        <f t="shared" si="2"/>
-        <v>-160.41379539605273</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>1956.2069309407912</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>63.103465470395577</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
-        <v>5.5517327351977883</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>229546892.77004695</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>-5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F30" s="14">
-        <f t="shared" si="2"/>
-        <v>-233.51724424506591</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>2902.7586636759888</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>63.103465470395463</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="4"/>
-        <v>5.5517327351976746</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>486436218.18746853</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>-6</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="14">
-        <f t="shared" si="2"/>
-        <v>-306.62069309407912</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>3849.310396411187</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>63.103465470395804</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="4"/>
-        <v>5.5517327351980157</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>838669620.46472466</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>-7</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="14">
-        <f t="shared" si="2"/>
-        <v>-379.72414194309232</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>4795.8621291463842</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>63.103465470395236</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
-        <v>5.5517327351974473</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>1286247099.6018405</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="2"/>
-        <v>-256.10344884901315</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>3691.5517327351977</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>94.655148341446079</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
-        <v>37.103415606248291</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>259468700.84280393</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F34" s="14">
-        <f t="shared" si="2"/>
-        <v>-329.20689769802635</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>4638.1034654703953</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>94.655148341445965</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="4"/>
-        <v>37.103415606248177</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>428737998.02966291</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F35" s="14">
-        <f t="shared" si="2"/>
-        <v>-402.31034654703956</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>5584.6551982055935</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
-        <v>94.655148341446306</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="4"/>
-        <v>37.103415606248518</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>640289716.77836645</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="2"/>
-        <v>-475.41379539605271</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>6531.2069309407907</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
-        <v>94.655148341445738</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="4"/>
-        <v>37.10341560624795</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>894123857.08894229</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="2"/>
-        <v>-548.51724424506597</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>7477.7586636759888</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>94.655148341446079</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
-        <v>37.103415606248291</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>1190240418.9613469</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="2"/>
-        <v>-621.62069309407912</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>8424.310396411187</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>94.65514834144642</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
-        <v>37.103415606248632</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>1528639402.3955963</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" si="2"/>
-        <v>-694.72414194309226</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>9370.8621291463842</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>94.655148341445852</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>37.103415606248063</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>1909320807.3917441</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F40" s="14">
-        <f t="shared" si="2"/>
-        <v>-129.89655115098682</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>1798.4482672648023</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>94.655148341446306</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
-        <v>37.103415606248518</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>66749707.066498943</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F41" s="14">
-        <f t="shared" si="2"/>
-        <v>-76.793102301973633</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>851.89653452960442</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>94.655148341446193</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>37.103415606248404</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>23329130.292979196</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>-3</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>94.655198205593479</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>2.4932073699801549E-5</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>5.5517078031240885</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
-        <v>14272767.838250322</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>-4</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F43" s="14">
-        <f t="shared" si="2"/>
-        <v>-109.41379539605273</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>1041.2069309407912</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
-        <v>2.4932073586114711E-5</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>5.5517078031242022</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
-        <v>106790442.3683957</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>-5</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F44" s="14">
-        <f t="shared" si="2"/>
-        <v>-182.51724424506591</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>1987.7586636759888</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>2.4932073472427874E-5</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>5.5517078031243159</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
-        <v>297163883.1192221</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>-6</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F45" s="14">
-        <f t="shared" si="2"/>
-        <v>-255.62069309407914</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>2934.310396411187</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>2.4932073813488387E-5</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>5.5517078031239748</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>582881451.06699204</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>-7</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F46" s="14">
-        <f t="shared" si="2"/>
-        <v>-328.72414194309226</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>3880.8621291463842</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>2.4932073245054198E-5</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>5.5517078031245433</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>963943146.21168697</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F47" s="14">
-        <f t="shared" si="2"/>
-        <v>-327.1034488490132</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>4606.5517327351981</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="3"/>
-        <v>63.103415606248745</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>5.5516828710509571</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
-        <v>954462114.43327999</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F48" s="14">
-        <f t="shared" si="2"/>
-        <v>-400.20689769802635</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>5553.1034654703953</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>63.103415606248177</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>5.5516828710503887</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
-        <v>1428754421.3992517</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F49" s="14">
-        <f t="shared" si="2"/>
-        <v>-473.31034654703956</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>6499.6551982055935</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>63.103415606248518</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>5.5516828710507298</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>1998390905.8992491</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F50" s="14">
-        <f t="shared" si="2"/>
-        <v>-546.41379539605271</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>7446.2069309407907</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
-        <v>63.10341560624795</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>5.5516828710501613</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
-        <v>2663371567.9333382</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F51" s="14">
-        <f t="shared" si="2"/>
-        <v>-619.51724424506585</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>8392.7586636759879</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
-        <v>63.103415606247381</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="4"/>
-        <v>5.5516828710495929</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="1"/>
-        <v>3423696407.5014963</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F52" s="14">
-        <f t="shared" si="2"/>
-        <v>-692.62069309407912</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>9339.310396411187</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>63.103415606248632</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="4"/>
-        <v>5.5516828710508435</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="1"/>
-        <v>4279365424.6035624</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F53" s="14">
-        <f t="shared" si="2"/>
-        <v>-765.72414194309226</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>10285.862129146384</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
-        <v>63.103415606248063</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="4"/>
-        <v>5.551682871050275</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="1"/>
-        <v>5230378619.239831</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>-1</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F54" s="14">
-        <f t="shared" si="2"/>
-        <v>-200.89655115098682</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>2713.4482672648023</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
-        <v>63.103415606248518</v>
-      </c>
       <c r="I54">
-        <f t="shared" si="4"/>
-        <v>5.5516828710507298</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>360025622.9577738</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>-2</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F55" s="14">
-        <f t="shared" si="2"/>
-        <v>-147.79310230197365</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>1766.8965345296044</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="3"/>
-        <v>63.103415606248404</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>5.5516828710506161</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>194848370.91219711</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>-3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F56" s="14">
-        <f t="shared" si="2"/>
-        <v>-94.689653452960442</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>820.34480179440652</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>63.103415606248291</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="4"/>
-        <v>5.5516828710505024</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="1"/>
-        <v>79982228.864646584</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>-4</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F57" s="14">
-        <f t="shared" si="2"/>
-        <v>-60</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>126.20693094079115</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>31.551757667271374</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926414</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
-        <v>57153577.381625079</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>-5</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F58" s="14">
-        <f t="shared" si="2"/>
-        <v>-131.51724424506591</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>1072.7586636759888</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>31.551757667271261</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926528</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>274603658.46120733</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>-6</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F59" s="14">
-        <f t="shared" si="2"/>
-        <v>-204.62069309407912</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>2019.310396411187</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="3"/>
-        <v>31.551757667271602</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926187</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>664721951.73764408</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>-7</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F60" s="14">
-        <f t="shared" si="2"/>
-        <v>-277.72414194309226</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>2965.8621291463842</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>31.551757667271033</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="4"/>
-        <v>-25.999975067926755</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>1224526493.0071266</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F61" s="14">
-        <f t="shared" si="2"/>
-        <v>-398.1034488490132</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>5521.5517327351981</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>31.551682871050957</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="4"/>
-        <v>-25.999950135853169</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="1"/>
-        <v>2516127396.1235514</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F62" s="14">
-        <f t="shared" si="2"/>
-        <v>-471.20689769802635</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>6468.1034654703953</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>31.551682871050389</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="4"/>
-        <v>-25.9999501358526</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="1"/>
-        <v>3525039800.3459072</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F63" s="14">
-        <f t="shared" si="2"/>
-        <v>-544.31034654703967</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>7414.6551982055935</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="3"/>
-        <v>31.55168287105073</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="4"/>
-        <v>-25.999950135852941</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="1"/>
-        <v>4703638385.4084826</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F64" s="14">
-        <f t="shared" si="2"/>
-        <v>-617.41379539605271</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>8361.2069309407907</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>31.551682871050161</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="4"/>
-        <v>-25.999950135852373</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="1"/>
-        <v>6051923151.3111486</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F65" s="14">
-        <f t="shared" si="2"/>
-        <v>-690.51724424506585</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>9307.7586636759879</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="3"/>
-        <v>31.551682871049593</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="4"/>
-        <v>-25.999950135851805</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="1"/>
-        <v>7569894098.0539598</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F66" s="14">
-        <f t="shared" si="2"/>
-        <v>-763.62069309407912</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>10254.310396411187</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
-        <v>31.551682871050843</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="4"/>
-        <v>-25.999950135853055</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="1"/>
-        <v>9257551225.6371784</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F67" s="14">
-        <f t="shared" si="2"/>
-        <v>-836.72414194309226</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="0"/>
-        <v>11200.862129146384</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="3"/>
-        <v>31.551682871050275</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="4"/>
-        <v>-25.999950135852487</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="1"/>
-        <v>11114894534.060316</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>-1</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F68" s="14">
-        <f t="shared" si="2"/>
-        <v>-271.89655115098685</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="0"/>
-        <v>3628.4482672648023</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="3"/>
-        <v>31.55168287105073</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="4"/>
-        <v>-25.999950135852941</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="1"/>
-        <v>1173675784.4050124</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E69" s="1">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F69" s="14">
-        <f t="shared" si="2"/>
-        <v>-218.79310230197365</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="0"/>
-        <v>2681.8965345296047</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="3"/>
-        <v>31.551682871050843</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="4"/>
-        <v>-25.999950135853055</v>
-      </c>
-      <c r="J69">
-        <f t="shared" ref="J69:J102" si="6">(F69*(100-I69))^2</f>
-        <v>759990212.03014934</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-      <c r="D70" s="1">
-        <v>-3</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="F70" s="14">
-        <f t="shared" ref="F70:F102" si="7">IF(G70&gt;$N$8,-$N$9*(G70-$N$8)/$N$8,0)-($N$10*(ABS(C70)-1+ABS(D70)-1))</f>
-        <v>-165.68965345296044</v>
-      </c>
-      <c r="G70">
-        <f t="shared" ref="G70:G102" si="8">ABS($D70*$Q$5+$L$5*$C70)</f>
-        <v>1735.3448017944065</v>
-      </c>
-      <c r="H70">
-        <f t="shared" ref="H70:H102" si="9">MOD(G70,$N$7/2)</f>
-        <v>31.551682871050502</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ref="I70:I102" si="10">ABS($O$5-H70)-26</f>
-        <v>-25.999950135852714</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="6"/>
-        <v>435844455.61673391</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>-4</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ref="E71:E102" si="11">1/C71</f>
-        <v>0.2</v>
-      </c>
-      <c r="F71" s="14">
-        <f t="shared" si="7"/>
-        <v>-112.58620460394727</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="8"/>
-        <v>788.79306905920885</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="9"/>
-        <v>31.551682871050616</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="10"/>
-        <v>-25.999950135852828</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="6"/>
-        <v>201238515.16477463</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>-5</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="F72" s="14">
-        <f t="shared" si="7"/>
-        <v>-80.517244245065925</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="8"/>
-        <v>157.75866367598883</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="9"/>
-        <v>63.103490402469049</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="10"/>
-        <v>5.5517576672712607</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="6"/>
-        <v>57831647.590401836</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>-6</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="F73" s="14">
-        <f t="shared" si="7"/>
-        <v>-153.62069309407912</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="8"/>
-        <v>1104.310396411187</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="9"/>
-        <v>63.10349040246939</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="10"/>
-        <v>5.5517576672716018</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="6"/>
-        <v>210517013.73334247</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>-7</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="F74" s="14">
-        <f t="shared" si="7"/>
-        <v>-226.72414194309226</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="8"/>
-        <v>2050.8621291463842</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="9"/>
-        <v>63.103490402468822</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="10"/>
-        <v>5.5517576672710334</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="6"/>
-        <v>458546406.39904422</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <v>6</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F75" s="14">
-        <f t="shared" si="7"/>
-        <v>-469.1034488490132</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="8"/>
-        <v>6436.5517327351981</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="9"/>
-        <v>94.655123409372948</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="10"/>
-        <v>37.103390674175159</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="6"/>
-        <v>870545990.14737689</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <v>6</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F76" s="14">
-        <f t="shared" si="7"/>
-        <v>-542.2068976980263</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="8"/>
-        <v>7383.1034654703953</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="9"/>
-        <v>94.655123409372379</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="10"/>
-        <v>37.103390674174591</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="6"/>
-        <v>1163012932.3798468</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <v>6</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F77" s="14">
-        <f t="shared" si="7"/>
-        <v>-615.31034654703956</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="8"/>
-        <v>8329.6551982055935</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="9"/>
-        <v>94.65512340937272</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="10"/>
-        <v>37.103390674174932</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="6"/>
-        <v>1497762329.6954706</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <v>6</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F78" s="14">
-        <f t="shared" si="7"/>
-        <v>-688.41379539605271</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="8"/>
-        <v>9276.2069309407907</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="9"/>
-        <v>94.655123409372152</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="10"/>
-        <v>37.103390674174364</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="6"/>
-        <v>1874794182.0943239</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F79" s="14">
-        <f t="shared" si="7"/>
-        <v>-761.51724424506585</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="8"/>
-        <v>10222.758663675988</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="9"/>
-        <v>94.655123409371583</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="10"/>
-        <v>37.103390674173795</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="6"/>
-        <v>2294108489.5763769</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F80" s="14">
-        <f t="shared" si="7"/>
-        <v>-834.62069309407912</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="8"/>
-        <v>11169.310396411187</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="9"/>
-        <v>94.655123409372834</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="10"/>
-        <v>37.103390674175046</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="6"/>
-        <v>2755705252.1414728</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C81">
-        <v>6</v>
-      </c>
-      <c r="D81">
-        <v>7</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F81" s="14">
-        <f t="shared" si="7"/>
-        <v>-907.72414194309226</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="8"/>
-        <v>12115.862129146384</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="9"/>
-        <v>94.655123409372266</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="10"/>
-        <v>37.103390674174477</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="6"/>
-        <v>3259584469.7899017</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>-1</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F82" s="14">
-        <f t="shared" si="7"/>
-        <v>-342.8965511509868</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="8"/>
-        <v>4543.4482672648019</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="9"/>
-        <v>94.655123409372266</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="10"/>
-        <v>37.103390674174477</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="6"/>
-        <v>465136801.00420427</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="D83">
-        <v>-2</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F83" s="14">
-        <f t="shared" si="7"/>
-        <v>-289.79310230197365</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="8"/>
-        <v>3596.8965345296047</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="9"/>
-        <v>94.655123409372834</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="10"/>
-        <v>37.103390674175046</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="6"/>
-        <v>332223658.07655668</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <v>6</v>
-      </c>
-      <c r="D84">
-        <v>-3</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F84" s="14">
-        <f t="shared" si="7"/>
-        <v>-236.68965345296044</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="8"/>
-        <v>2650.3448017944065</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="9"/>
-        <v>94.655123409372493</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="10"/>
-        <v>37.103390674174705</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="6"/>
-        <v>221622074.21519813</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>-4</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F85" s="14">
-        <f t="shared" si="7"/>
-        <v>-183.58620460394727</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="8"/>
-        <v>1703.7930690592088</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="9"/>
-        <v>94.655123409372607</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="10"/>
-        <v>37.103390674174818</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="6"/>
-        <v>133332049.42011426</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>-5</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F86" s="14">
-        <f t="shared" si="7"/>
-        <v>-130.48275575493409</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="8"/>
-        <v>757.24133632401117</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="9"/>
-        <v>94.65512340937272</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="10"/>
-        <v>37.103390674174932</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="6"/>
-        <v>67353583.691309467</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87">
-        <v>6</v>
-      </c>
-      <c r="D87">
-        <v>-6</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F87" s="14">
-        <f t="shared" si="7"/>
-        <v>-102.62069309407913</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="8"/>
-        <v>189.31039641118696</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="9"/>
-        <v>4.9864147399603098E-5</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="10"/>
-        <v>5.5516828710503887</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="6"/>
-        <v>93941682.743131965</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88">
-        <v>6</v>
-      </c>
-      <c r="D88">
-        <v>-7</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F88" s="14">
-        <f t="shared" si="7"/>
-        <v>-175.72414194309226</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="8"/>
-        <v>1135.8621291463842</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="9"/>
-        <v>4.986414683116891E-5</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="10"/>
-        <v>5.5516828710509571</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="6"/>
-        <v>275455412.84280252</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89">
-        <v>7</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F89" s="14">
-        <f t="shared" si="7"/>
-        <v>-540.10344884901315</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="8"/>
-        <v>7351.5517327351981</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="9"/>
-        <v>63.103390674175159</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="10"/>
-        <v>5.551657938977371</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="6"/>
-        <v>2602211420.1158218</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C90">
-        <v>7</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F90" s="14">
-        <f t="shared" si="7"/>
-        <v>-613.20689769802641</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="8"/>
-        <v>8298.1034654703963</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="9"/>
-        <v>63.1033906741755</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="10"/>
-        <v>5.5516579389777121</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="6"/>
-        <v>3354306473.2129321</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C91">
-        <v>7</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F91" s="14">
-        <f t="shared" si="7"/>
-        <v>-686.31034654703956</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="8"/>
-        <v>9244.6551982055935</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="9"/>
-        <v>63.103390674174932</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="10"/>
-        <v>5.5516579389771437</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="6"/>
-        <v>4201745754.1812849</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92">
-        <v>7</v>
-      </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F92" s="14">
-        <f t="shared" si="7"/>
-        <v>-759.41379539605271</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="8"/>
-        <v>10191.206930940791</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="9"/>
-        <v>63.103390674174364</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="10"/>
-        <v>5.5516579389765752</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="6"/>
-        <v>5144529263.0208349</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93">
-        <v>7</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F93" s="14">
-        <f t="shared" si="7"/>
-        <v>-832.51724424506585</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="8"/>
-        <v>11137.758663675988</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="9"/>
-        <v>63.103390674173795</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="10"/>
-        <v>5.5516579389760068</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="6"/>
-        <v>6182656999.7315836</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94">
-        <v>7</v>
-      </c>
-      <c r="D94">
-        <v>6</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F94" s="14">
-        <f t="shared" si="7"/>
-        <v>-905.62069309407912</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="8"/>
-        <v>12084.310396411187</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="9"/>
-        <v>63.103390674175046</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="10"/>
-        <v>5.5516579389772573</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="6"/>
-        <v>7316128964.3132553</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95">
-        <v>7</v>
-      </c>
-      <c r="D95">
-        <v>7</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F95" s="14">
-        <f t="shared" si="7"/>
-        <v>-978.72414194309226</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="8"/>
-        <v>13030.862129146384</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="9"/>
-        <v>63.103390674174477</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="10"/>
-        <v>5.5516579389766889</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="6"/>
-        <v>8544945156.7663689</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="D96">
-        <v>-1</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F96" s="14">
-        <f t="shared" si="7"/>
-        <v>-413.8965511509868</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="8"/>
-        <v>5458.4482672648019</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="9"/>
-        <v>63.103390674174477</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="10"/>
-        <v>5.5516579389766889</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="6"/>
-        <v>1528172192.3411038</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97">
-        <v>7</v>
-      </c>
-      <c r="D97">
-        <v>-2</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F97" s="14">
-        <f t="shared" si="7"/>
-        <v>-360.79310230197365</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="8"/>
-        <v>4511.8965345296047</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="9"/>
-        <v>63.103390674175046</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="10"/>
-        <v>5.5516579389772573</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="6"/>
-        <v>1161194926.3521686</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="1">
-        <v>7</v>
-      </c>
-      <c r="D98" s="1">
-        <v>-3</v>
-      </c>
-      <c r="E98" s="1">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F98" s="14">
-        <f t="shared" si="7"/>
-        <v>-307.68965345296044</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="8"/>
-        <v>3565.3448017944065</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="9"/>
-        <v>63.103390674174705</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="10"/>
-        <v>5.5516579389769163</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="6"/>
-        <v>844528796.92312217</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C99" s="1">
-        <v>7</v>
-      </c>
-      <c r="D99" s="1">
-        <v>-4</v>
-      </c>
-      <c r="E99" s="1">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F99" s="14">
-        <f t="shared" si="7"/>
-        <v>-254.58620460394727</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="8"/>
-        <v>2618.7930690592088</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="9"/>
-        <v>63.103390674174818</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="10"/>
-        <v>5.55165793897703</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="6"/>
-        <v>578173804.05393171</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <v>7</v>
-      </c>
-      <c r="D100">
-        <v>-5</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F100" s="14">
-        <f t="shared" si="7"/>
-        <v>-201.48275575493409</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="8"/>
-        <v>1672.2413363240112</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="9"/>
-        <v>63.103390674174932</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="10"/>
-        <v>5.5516579389771437</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="6"/>
-        <v>362129947.74460745</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C101">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>-6</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F101" s="14">
-        <f t="shared" si="7"/>
-        <v>-148.37930690592088</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="8"/>
-        <v>725.68960358881304</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="9"/>
-        <v>63.103390674174591</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="10"/>
-        <v>5.5516579389768026</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="6"/>
-        <v>196397227.99515104</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C102">
-        <v>7</v>
-      </c>
-      <c r="D102">
-        <v>-7</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F102" s="14">
-        <f t="shared" si="7"/>
-        <v>-124.72414194309228</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="8"/>
-        <v>220.86212914638418</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="9"/>
-        <v>31.551782599344619</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="10"/>
-        <v>-25.999950135853169</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="6"/>
-        <v>246968632.02429962</v>
-      </c>
+        <f>ABS($N$5-H54)-26</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="13"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="N13:S20">
-    <sortCondition ref="O13:O20"/>
+  <sortState ref="M13:R20">
+    <sortCondition ref="N13:N20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
